--- a/target/test-classes/TestData/Data.xlsx
+++ b/target/test-classes/TestData/Data.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Clients\Philips\Workspace\APITestProject_Srivid\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63502C21-5968-4A06-A9E1-A5A448190F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddPet" sheetId="1" r:id="rId1"/>
+    <sheet name="FindPet" sheetId="2" r:id="rId2"/>
+    <sheet name="UpdatePet" sheetId="3" r:id="rId3"/>
+    <sheet name="ImageUpload" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +27,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+  <si>
+    <t>PET ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PET NAME</t>
+  </si>
+  <si>
+    <t>100112</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>EXPECTED PET NAME</t>
+  </si>
+  <si>
+    <t>5239423</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>PET_ID</t>
+  </si>
+  <si>
+    <t>IMAGE_TITLE</t>
+  </si>
+  <si>
+    <t>PET_NAME</t>
+  </si>
+  <si>
+    <t>100106</t>
+  </si>
+  <si>
+    <t>Drop_Target</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +90,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +119,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +423,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{6F23E4A9-5D4E-41E8-A820-29BBA8536B46}">
+      <formula1>"available,pending,sold"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A6D6A9-F0AF-4BF7-B69C-5F2C3E8A6713}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{FC362EEA-D760-4A85-9826-502127E726CB}">
+      <formula1>"sold, pending, available"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F3E6C5-1DB8-4DD3-AC6A-0A63018B4171}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{B7A6D31E-BA4B-4924-8F7E-F75C88BBFD97}">
+      <formula1>"available,pending,sold"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983B001-98A5-45F8-AF71-D6FB7F1305E8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>